--- a/tables/schedule.xlsx
+++ b/tables/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usiusi/Desktop/grant/proposal_snf/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9249A-7F8E-1A4F-8D4E-F637649897DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1792986-73B0-174A-8DBC-D0F143E99DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1760" windowWidth="30760" windowHeight="17440" xr2:uid="{CBB590CC-18A1-8D45-A827-457A1C275DB9}"/>
   </bookViews>
@@ -280,17 +280,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +612,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,30 +624,30 @@
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -660,11 +660,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -677,11 +677,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">

--- a/tables/schedule.xlsx
+++ b/tables/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usiusi/Desktop/grant/proposal_snf/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1792986-73B0-174A-8DBC-D0F143E99DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0CBEC1-D055-E641-8C24-254A5C005986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1760" windowWidth="30760" windowHeight="17440" xr2:uid="{CBB590CC-18A1-8D45-A827-457A1C275DB9}"/>
   </bookViews>
@@ -71,36 +71,12 @@
 • Image captioning</t>
   </si>
   <si>
-    <t>• Build widget labeler
-• Integrate with test migration evaluator framework
-• Reuse testcase of on mobile subjects</t>
-  </si>
-  <si>
     <t>• Workshop paper
 • Conference paper</t>
   </si>
   <si>
     <t>• Tool/Demo paper
 • Journal paper</t>
-  </si>
-  <si>
-    <t>• Build RL Agent
-• Integrate with test migration evaluator framework
-• Reuse testcase of mobile app subjects</t>
-  </si>
-  <si>
-    <t>• Build LLM translator
-• Integrate with test migration evaluator framework
-• Reuse testcase of mobile app subjects</t>
-  </si>
-  <si>
-    <t>• LLM based GUI testing
-• Prompt engineering
-• Choosing suitable model and prompt pattern</t>
-  </si>
-  <si>
-    <t>• RL based GUI testing
-• Choosing suitable RL thechnique</t>
   </si>
   <si>
     <r>
@@ -167,6 +143,31 @@
   </si>
   <si>
     <t>Incorporating External Resources (O2)</t>
+  </si>
+  <si>
+    <t>• Build widget labeler
+• Integrate Horus into the evaluator framework
+• Reuse testcase of mobile apps</t>
+  </si>
+  <si>
+    <t>• Build RL Agent
+• Integrate Athena into the evaluator framework
+• Reuse testcase of mobile apps</t>
+  </si>
+  <si>
+    <t>• Build LLM translator
+• Integrate Hermes into the evaluator framework
+• Reuse testcase of mobile apps</t>
+  </si>
+  <si>
+    <t>• LLM-based GUI testing
+• Prompt engineering
+• Choosing suitable model and prompt pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• RL-based GUI testing
+• Choosing suitable RL thechniques
+• Defining RL states, reward, etc. </t>
   </si>
 </sst>
 </file>
@@ -612,7 +613,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>2</v>
@@ -654,10 +655,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -668,13 +669,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -685,26 +686,26 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
